--- a/data/tensorflow-release.xlsx
+++ b/data/tensorflow-release.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\defects4dll-repo\gdefects4dl-hybrid_release-refactor\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\defects4dll-repo\Defects4DLL-Study\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82229F-D0BD-45E2-9783-8980696A18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA7C977-5456-4003-B7DA-12E15151D0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11918" yWindow="0" windowWidth="12165" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="175">
   <si>
     <t>project</t>
   </si>
@@ -375,15 +375,6 @@
   </si>
   <si>
     <t>tensorflow/python/ops/custom_gradient.py::313-321</t>
-  </si>
-  <si>
-    <t>tensorflow/python/keras/layers/convolutional.py</t>
-  </si>
-  <si>
-    <t>tensorflow/python/keras/layers/convolutional.py::244</t>
-  </si>
-  <si>
-    <t>tensorflow/python/keras/layers/convolutional.py::245-246,269-270</t>
   </si>
   <si>
     <t>tensorflow/python/keras/layers/dense_attention.py</t>
@@ -650,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,29 +664,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,30 +946,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C75" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2"/>
-    <col min="3" max="3" width="35.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="21.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="2"/>
+    <col min="3" max="3" width="32.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.9296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="71.53125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="21.86328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="11" width="25.625" style="2" customWidth="1"/>
-    <col min="12" max="14" width="8.875" style="11"/>
-    <col min="15" max="15" width="14.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="23.125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="2"/>
+    <col min="9" max="11" width="25.59765625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="8.86328125" style="8"/>
+    <col min="15" max="15" width="14.1328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.1328125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23.1328125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1000,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1031,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1062,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1093,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1124,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1155,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1186,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1217,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1248,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1279,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1310,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1341,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1372,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1403,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1434,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1492,23 +1465,23 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
         <v>37018</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="3"/>
@@ -1523,23 +1496,23 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="16">
+    <row r="18" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
         <v>37115</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="1"/>
@@ -1554,23 +1527,23 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="9">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3">
         <v>37599</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="C19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="3"/>
@@ -1585,7 +1558,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1589,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1647,23 +1620,23 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="9">
-        <v>37813</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="8" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>37916</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="3"/>
@@ -1678,80 +1651,80 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="3">
-        <v>37916</v>
+        <v>37919</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="9">
-        <v>37919</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>10</v>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>38142</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="O24" s="4"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="3">
-        <v>38142</v>
+        <v>38549</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>14</v>
@@ -1768,21 +1741,21 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3">
-        <v>38549</v>
+        <v>38647</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -1799,21 +1772,21 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="3">
-        <v>38647</v>
+        <v>38717</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1830,21 +1803,21 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="3">
-        <v>38717</v>
+        <v>38808</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>14</v>
@@ -1861,21 +1834,21 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>14</v>
@@ -1889,86 +1862,86 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3">
-        <v>38899</v>
+      <c r="B30" s="1">
+        <v>39123</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="8">
-        <v>39123</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3">
+        <v>39131</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3">
-        <v>39131</v>
+        <v>39134</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1977,29 +1950,26 @@
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="K32" s="1"/>
       <c r="O32" s="3"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3">
-        <v>39134</v>
+        <v>39159</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -2009,28 +1979,31 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="3">
-        <v>39159</v>
+        <v>39481</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2041,27 +2014,27 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3">
-        <v>39481</v>
+      <c r="B35" s="6">
+        <v>39825</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2075,21 +2048,21 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="6">
-        <v>39825</v>
+      <c r="B36" s="1">
+        <v>40626</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -2103,114 +2076,114 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="1">
-        <v>40626</v>
+        <v>40636</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O37" s="1"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="13">
-        <v>40636</v>
+      <c r="B38" s="1">
+        <v>40807</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="12">
-        <v>40807</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>14</v>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="13">
-        <v>41426</v>
+      <c r="B40" s="9">
+        <v>41502</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -2223,25 +2196,25 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="14">
-        <v>41502</v>
+      <c r="B41" s="1">
+        <v>41603</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
@@ -2254,25 +2227,25 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="7"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="13">
-        <v>41603</v>
+      <c r="B42" s="1">
+        <v>44780</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
@@ -2282,28 +2255,25 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="7"/>
+      <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="13">
-        <v>44780</v>
+      <c r="B43" s="1">
+        <v>45015</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -2313,25 +2283,28 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="P43" s="7"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="1">
-        <v>45015</v>
+        <v>45298</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -2345,24 +2318,24 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="7"/>
+      <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="1">
-        <v>45298</v>
+        <v>45613</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -2376,26 +2349,26 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="P45" s="7"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="12">
-        <v>45613</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="8" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>46321</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="1"/>
@@ -2410,21 +2383,21 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="1">
-        <v>46063</v>
+        <v>46349</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -2437,25 +2410,25 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="7"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="1">
-        <v>46321</v>
+        <v>46375</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>10</v>
@@ -2469,55 +2442,47 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="7"/>
+      <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>46349</v>
+        <v>47012</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="1">
-        <v>46375</v>
+      <c r="B50" s="3">
+        <v>47128</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -2534,44 +2499,52 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="1">
-        <v>47012</v>
+      <c r="B51" s="3">
+        <v>47135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="3">
-        <v>47128</v>
+        <v>48207</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
@@ -2588,24 +2561,24 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="3">
-        <v>47135</v>
+        <v>48315</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2619,21 +2592,21 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="3">
-        <v>48207</v>
+        <v>48434</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>10</v>
@@ -2650,43 +2623,32 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="3">
-        <v>48315</v>
+      <c r="B55" s="1">
+        <v>48707</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="3">
-        <v>48434</v>
+        <v>48887</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>140</v>
@@ -2698,46 +2660,35 @@
         <v>142</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="12">
-        <v>48707</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3">
+        <v>48900</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="3">
-        <v>48887</v>
+        <v>48962</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>143</v>
@@ -2749,113 +2700,73 @@
         <v>145</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="9">
-        <v>48900</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3">
+        <v>49609</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="3">
-        <v>48962</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="10">
+        <v>52172</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F60" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="9">
-        <v>49609</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="8" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2">
+        <v>57506</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="15">
-        <v>52172</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="10">
-        <v>57506</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F63" s="8" t="s">
+      <c r="F61" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F58" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F63">
-    <sortCondition ref="B1:B63"/>
+  <autoFilter ref="F1:F56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
+    <sortCondition ref="B1:B61"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
